--- a/output/test20180718.xlsx
+++ b/output/test20180718.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>AU</t>
   </si>
@@ -57,6 +57,48 @@
   </si>
   <si>
     <t>了解电化学反应和材料降解的微观机制对合理设计高性能锂离子电池至关重要。在透射电子显微镜(TEM)中设计了一种新型的纳米线组装和测试平台，可以直接研究近原子分辨率的纳米线或纳米颗粒电极的结构演变。本文综述了近年来几种重要的阳极材料的研究进展。结果表明了原位测试结果与原位测试结果的一致性，从而验证了新的原位测试范式。通过对各种纳米结构的比较，得出电化学反应和机械降解是材料特异性的、尺寸依赖性的、几何敏感性和复合敏感性的结论。例如，与Ge中各向异性的响应形成对比，在Si中观察到一个高度各向异性的岩化。Ge纳米线可以开发一个海绵网络，这是一种独特的机制，可以在循环过程中减少大量的体积变化。硅纳米颗粒的临界尺寸接近于150纳米，在锂化过程中可以避免断裂，在其之上可以观察到表面裂纹，而不是中心裂纹。在碳质纳米材料中，岩石化的多壁碳纳米管(MWCNTs)会发生剧烈的脆化，而少量层的石墨烯纳米带在岩化后仍然具有很强的机械强度。与相对较弱的化学脆化效应相比，这种鲜明的对比表现出很强的几何脆化效应。在氧化物纳米线中，氧化锌纳米线在锂化反应前沿附近产生离散裂纹，导致跳形裂纹，而在SnO2纳米线中观察到反应前沿的移动位错云。这种对比是由ab的初始计算证实的，它表明ZnO的强化学脆化，但在少量的锂插入后，并不是SnO2。在像铝这样的金属纳米线中，溶出会导致粉化，而产物纳米颗粒被Li-Al-O玻璃管表面所固定，这就提出了通过涂层提高电极圈化性的可能策略。此外，介绍了一种新的原位化学岩化方法，用于常规瞬变电磁法快速筛选电池材料。显然，在瞬变电磁法中进行原位纳米电池实验是推进对电化学反应和材料降解的基本认识的有力途径，从而为高性能LIBs的合理设计铺平了道路。</t>
+  </si>
+  <si>
+    <t>Kronawitter, CX; Ma, ZX; Liu, DF; Mao, SS; Antoun, BR</t>
+  </si>
+  <si>
+    <t>Kronawitter, Coleman X.; Ma, Zhixun; Liu, Dongfang; Mao, Samuel S.; Antoun, Bonnie R.</t>
+  </si>
+  <si>
+    <t>Engineering Impurity Distributions in Photoelectrodes for Solar Water Oxidation</t>
+  </si>
+  <si>
+    <t>oxide; nanostructures; photoelectrochemistry; solar energy; zno nanowire arrays; hydrogen-production; energy-conversion; thin-films; cells; titanium-dioxide; spectroscopy; photoanodes; generation; electrodes</t>
+  </si>
+  <si>
+    <t>Lin, J; Peng, ZW; Wang, G; Zakhidov, D; Larios, E; Yacaman, MJ; Tour, JM</t>
+  </si>
+  <si>
+    <t>Lin, Jian; Peng, Zhiwei; Wang, Gunuk; Zakhidov, Dante; Larios, Eduardo; Yacaman, Miguel Jose; Tour, James M.</t>
+  </si>
+  <si>
+    <t>Enhanced Electrocatalysis for Hydrogen Evolution Reactions from WS2 Nanoribbons</t>
+  </si>
+  <si>
+    <t>active edge sites; graphene nanoribbons; mos2 nanoparticles; nanosheets; oxidation; sulfides; catalysts; stack; design; layer</t>
+  </si>
+  <si>
+    <t>A facile route is developed to boost the electrocatalytic activity of WS2 by chemically unzipping WS2 nanotubes to form WS2 nanoribbons (NRs) with increased edge content. Analysis indicates that the hydrogen evolution reaction activity is strongly associated with the number of exposed active edge sites. The formation of WS2 NRs is an effective route for controlling the electrochemical properties of the 2D dichalcogenides, enabling their application in electrocatalysis.</t>
+  </si>
+  <si>
+    <t>Miller, JE; McDaniel, AH; Allendorf, MD</t>
+  </si>
+  <si>
+    <t>Miller, James E.; McDaniel, Anthony H.; Allendorf, Mark D.</t>
+  </si>
+  <si>
+    <t>Considerations in the Design of Materials for Solar-Driven Fuel Production Using Metal-Oxide Thermochemical Cycles</t>
+  </si>
+  <si>
+    <t>carbon-dioxide; ceria; ferrite; gas splitting; hydrogen; yttria-stabilized zirconia; nonstoichiometric ceria; feo/fe3o4 redox reactions; oxygen storage capacity; hydrogen-production; solid-solution; thermodynamic analysis; h-2 generation; thermal-energy; iron-oxide</t>
+  </si>
+  <si>
+    <t>With demand for energy increasing worldwide and an ever-stronger case building for anthropogenic climate change, the need for carbon-neutral fuels is becoming an imperative. Extensive transportation infrastructure based on liquid hydrocarbon fuels motivates development of processes using solar energy to convert CO2 and H2O to fuel precursors such as synthesis gas. Here, perspectives concerning the use of solar-driven thermochemical cycles using metal oxides to produce fuel precursors are given and, in particular, the important relationship between reactor design and material selection is discussed. Considering both a detailed thermodynamic analysis and factors such as reaction kinetics, volatility, and phase stability, an integrated analytical approach that facilitates material design is presented. These concepts are illustrated using three oxide materials currently receiving considerable attention: metal-substituted ferrites, ceria, and doped cerias. Although none of these materials is ideal, the tradeoffs made in selecting any one of them are clearly indicated, providing a starting point for assessing the feasibility of alternative materials developed in the future.</t>
   </si>
 </sst>
 </file>
@@ -405,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,23 +509,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s"/>
     </row>
     <row r="4" spans="1:8">
@@ -491,24 +531,48 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/output/test20180718.xlsx
+++ b/output/test20180718.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>AU</t>
   </si>
@@ -86,6 +86,9 @@
     <t>A facile route is developed to boost the electrocatalytic activity of WS2 by chemically unzipping WS2 nanotubes to form WS2 nanoribbons (NRs) with increased edge content. Analysis indicates that the hydrogen evolution reaction activity is strongly associated with the number of exposed active edge sites. The formation of WS2 NRs is an effective route for controlling the electrochemical properties of the 2D dichalcogenides, enabling their application in electrocatalysis.</t>
   </si>
   <si>
+    <t>通过化学解压缩WS2纳米管，使之形成边缘含量增加的WS2纳米带(NRs)，从而促进WS2的电催化活性。分析表明，氢演化反应活性与暴露的活性边缘位点的数量密切相关。WS2 NRs的形成是控制二维二硫化合物电化学性质的有效途径，使其在电催化中的应用成为可能。</t>
+  </si>
+  <si>
     <t>Miller, JE; McDaniel, AH; Allendorf, MD</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
   </si>
   <si>
     <t>With demand for energy increasing worldwide and an ever-stronger case building for anthropogenic climate change, the need for carbon-neutral fuels is becoming an imperative. Extensive transportation infrastructure based on liquid hydrocarbon fuels motivates development of processes using solar energy to convert CO2 and H2O to fuel precursors such as synthesis gas. Here, perspectives concerning the use of solar-driven thermochemical cycles using metal oxides to produce fuel precursors are given and, in particular, the important relationship between reactor design and material selection is discussed. Considering both a detailed thermodynamic analysis and factors such as reaction kinetics, volatility, and phase stability, an integrated analytical approach that facilitates material design is presented. These concepts are illustrated using three oxide materials currently receiving considerable attention: metal-substituted ferrites, ceria, and doped cerias. Although none of these materials is ideal, the tradeoffs made in selecting any one of them are clearly indicated, providing a starting point for assessing the feasibility of alternative materials developed in the future.</t>
+  </si>
+  <si>
+    <t>随着全球对能源的需求不断增长，人为气候变化的理由越来越充分，对碳中性燃料的需求正成为当务之急。基于液态烃燃料的广泛运输基础设施推动了利用太阳能将CO2和H2O转化为合成气体等燃料前体的过程的发展。本文对利用金属氧化物生产燃料前驱物的太阳驱动热化学循环的前景进行了展望，并特别讨论了反应堆设计与材料选择之间的重要关系。考虑到详细的热力学分析和反应动力学、挥发性和相稳定性等因素，提出了一种方便材料设计的综合分析方法。这些概念用三种目前受到相当重视的氧化物材料进行说明:金属取代铁氧体、铈和掺杂铈。虽然这些材料中没有一种是理想的，但是在选择其中任何一种材料时所作的权衡是明确的，这为评估未来开发的替代材料的可行性提供了一个起点。</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -528,7 +534,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -548,31 +554,35 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s"/>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
